--- a/data/pca/factorExposure/factorExposure_2016-12-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0100737032592667</v>
+        <v>-0.01450464259692816</v>
       </c>
       <c r="C2">
-        <v>0.02901662751539334</v>
+        <v>0.03861317221092054</v>
       </c>
       <c r="D2">
-        <v>0.03052004281836715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03213779487463137</v>
+      </c>
+      <c r="E2">
+        <v>0.05395474652728936</v>
+      </c>
+      <c r="F2">
+        <v>-0.01445766379532783</v>
+      </c>
+      <c r="G2">
+        <v>-0.1042453849240147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05679212250490707</v>
+        <v>-0.03657093228282027</v>
       </c>
       <c r="C3">
-        <v>0.1129407169620553</v>
+        <v>0.09275986518276973</v>
       </c>
       <c r="D3">
-        <v>0.02541147090421839</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01897495705180793</v>
+      </c>
+      <c r="E3">
+        <v>0.1007546349615352</v>
+      </c>
+      <c r="F3">
+        <v>-0.02603018870326174</v>
+      </c>
+      <c r="G3">
+        <v>-0.1126803692746678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.05566588052967113</v>
+        <v>-0.05540559794023156</v>
       </c>
       <c r="C4">
-        <v>0.0624647568266497</v>
+        <v>0.05866686315505112</v>
       </c>
       <c r="D4">
-        <v>0.02838075369605444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02691268039593322</v>
+      </c>
+      <c r="E4">
+        <v>0.05253528184209281</v>
+      </c>
+      <c r="F4">
+        <v>-0.005505689634696803</v>
+      </c>
+      <c r="G4">
+        <v>-0.09318014877477745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01595228565625063</v>
+        <v>-0.03432472293921435</v>
       </c>
       <c r="C6">
-        <v>0.0528871174572097</v>
+        <v>0.04248357560250903</v>
       </c>
       <c r="D6">
-        <v>0.02453494450295976</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01988568633881926</v>
+      </c>
+      <c r="E6">
+        <v>0.05919953243846905</v>
+      </c>
+      <c r="F6">
+        <v>-0.008761528759182501</v>
+      </c>
+      <c r="G6">
+        <v>-0.08297139406442162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01471750412330758</v>
+        <v>-0.02057501888455175</v>
       </c>
       <c r="C7">
-        <v>0.04077433648397322</v>
+        <v>0.03331545181656093</v>
       </c>
       <c r="D7">
-        <v>0.01899835839668938</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01567727436562364</v>
+      </c>
+      <c r="E7">
+        <v>0.02626698275389035</v>
+      </c>
+      <c r="F7">
+        <v>0.001631248189908444</v>
+      </c>
+      <c r="G7">
+        <v>-0.1225283018953745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003147163520453609</v>
+        <v>-0.00441862098166801</v>
       </c>
       <c r="C8">
-        <v>0.008881180601873481</v>
+        <v>0.01926129302731606</v>
       </c>
       <c r="D8">
-        <v>0.004130847074077511</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004882531262520218</v>
+      </c>
+      <c r="E8">
+        <v>0.03716860979371128</v>
+      </c>
+      <c r="F8">
+        <v>-0.005880429657265331</v>
+      </c>
+      <c r="G8">
+        <v>-0.06965007012105848</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02342040425137043</v>
+        <v>-0.03400134943695939</v>
       </c>
       <c r="C9">
-        <v>0.04119500635586638</v>
+        <v>0.04398219404582813</v>
       </c>
       <c r="D9">
-        <v>0.01977902827389755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01773152481135347</v>
+      </c>
+      <c r="E9">
+        <v>0.03645739830995584</v>
+      </c>
+      <c r="F9">
+        <v>-0.004202365876014042</v>
+      </c>
+      <c r="G9">
+        <v>-0.1000536075060243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1024401050426121</v>
+        <v>-0.09663467606122458</v>
       </c>
       <c r="C10">
-        <v>-0.1723459813180976</v>
+        <v>-0.191763317761396</v>
       </c>
       <c r="D10">
-        <v>-0.05910870441603434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01522031662827232</v>
+      </c>
+      <c r="E10">
+        <v>0.01712235733641699</v>
+      </c>
+      <c r="F10">
+        <v>-0.02813026763240451</v>
+      </c>
+      <c r="G10">
+        <v>-0.05227677694012903</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.03295162627538118</v>
+        <v>-0.03564156093961306</v>
       </c>
       <c r="C11">
-        <v>0.05826300462349699</v>
+        <v>0.05125489945461383</v>
       </c>
       <c r="D11">
-        <v>0.008402727311372801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003075308277321271</v>
+      </c>
+      <c r="E11">
+        <v>0.0267019457269274</v>
+      </c>
+      <c r="F11">
+        <v>0.01429308692553903</v>
+      </c>
+      <c r="G11">
+        <v>-0.07467673857420518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03187937701649408</v>
+        <v>-0.0372785884075023</v>
       </c>
       <c r="C12">
-        <v>0.04916411981880719</v>
+        <v>0.04528586386728695</v>
       </c>
       <c r="D12">
-        <v>0.01176731984654431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007347740328098235</v>
+      </c>
+      <c r="E12">
+        <v>0.01827078849361405</v>
+      </c>
+      <c r="F12">
+        <v>0.005822430768837985</v>
+      </c>
+      <c r="G12">
+        <v>-0.07330932371239779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.005495658297039015</v>
+        <v>-0.01098032966692946</v>
       </c>
       <c r="C13">
-        <v>0.02736818615208451</v>
+        <v>0.03333040709687803</v>
       </c>
       <c r="D13">
-        <v>0.0282785204582913</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03013660991113968</v>
+      </c>
+      <c r="E13">
+        <v>0.06231568000516459</v>
+      </c>
+      <c r="F13">
+        <v>-0.01777245360910035</v>
+      </c>
+      <c r="G13">
+        <v>-0.131990549468079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.005439496250516084</v>
+        <v>-0.008895609506440812</v>
       </c>
       <c r="C14">
-        <v>0.02754278447165092</v>
+        <v>0.0238613183651583</v>
       </c>
       <c r="D14">
-        <v>0.0130492358318643</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0119614350775871</v>
+      </c>
+      <c r="E14">
+        <v>0.02223996564490367</v>
+      </c>
+      <c r="F14">
+        <v>-0.006927614341802335</v>
+      </c>
+      <c r="G14">
+        <v>-0.1140180019414486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.02861333755759262</v>
+        <v>-0.03412977094482922</v>
       </c>
       <c r="C16">
-        <v>0.04242760676295917</v>
+        <v>0.04406769546279633</v>
       </c>
       <c r="D16">
-        <v>0.005711895567842132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002821282499183312</v>
+      </c>
+      <c r="E16">
+        <v>0.02332578616285342</v>
+      </c>
+      <c r="F16">
+        <v>-0.004207237784783917</v>
+      </c>
+      <c r="G16">
+        <v>-0.08171893335787488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.02263548511373058</v>
+        <v>-0.01814125053039551</v>
       </c>
       <c r="C19">
-        <v>0.0531036906176857</v>
+        <v>0.04715035437505722</v>
       </c>
       <c r="D19">
-        <v>0.02199098751739333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02305115519360699</v>
+      </c>
+      <c r="E19">
+        <v>0.1000100610903194</v>
+      </c>
+      <c r="F19">
+        <v>-0.01730411448407392</v>
+      </c>
+      <c r="G19">
+        <v>-0.1362882301328506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.00698165126639777</v>
+        <v>-0.01536423815919282</v>
       </c>
       <c r="C20">
-        <v>0.03723423427059095</v>
+        <v>0.03589697417079824</v>
       </c>
       <c r="D20">
-        <v>0.01862116639928184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0161693153614521</v>
+      </c>
+      <c r="E20">
+        <v>0.04665858733249245</v>
+      </c>
+      <c r="F20">
+        <v>-0.02849947573253978</v>
+      </c>
+      <c r="G20">
+        <v>-0.1065743504593484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.002071228774499062</v>
+        <v>-0.006846085722635877</v>
       </c>
       <c r="C21">
-        <v>0.03354548252611914</v>
+        <v>0.03196263852550246</v>
       </c>
       <c r="D21">
-        <v>0.02141829966622371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02243419424598192</v>
+      </c>
+      <c r="E21">
+        <v>0.06665449330438522</v>
+      </c>
+      <c r="F21">
+        <v>-0.01876682269838291</v>
+      </c>
+      <c r="G21">
+        <v>-0.1493853943958119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009084681518401282</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.007636229792627893</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003003632038280152</v>
+      </c>
+      <c r="E22">
+        <v>0.02152378209669542</v>
+      </c>
+      <c r="F22">
+        <v>0.002854749474302881</v>
+      </c>
+      <c r="G22">
+        <v>-0.005830134298133008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009325854721754575</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.007546562797857882</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002989068704489942</v>
+      </c>
+      <c r="E23">
+        <v>0.0214344033254298</v>
+      </c>
+      <c r="F23">
+        <v>0.002614997102212734</v>
+      </c>
+      <c r="G23">
+        <v>-0.005680038906271696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02085645156573058</v>
+        <v>-0.03031877444910198</v>
       </c>
       <c r="C24">
-        <v>0.04745239650200894</v>
+        <v>0.04903789824278652</v>
       </c>
       <c r="D24">
-        <v>0.01278796302803553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007982067731773627</v>
+      </c>
+      <c r="E24">
+        <v>0.02221874626606489</v>
+      </c>
+      <c r="F24">
+        <v>0.006251395941326968</v>
+      </c>
+      <c r="G24">
+        <v>-0.08191514588628547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.03983915556405885</v>
+        <v>-0.04290899711886743</v>
       </c>
       <c r="C25">
-        <v>0.05832933594585932</v>
+        <v>0.05549555474593806</v>
       </c>
       <c r="D25">
-        <v>0.01752118948914607</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01200613465858216</v>
+      </c>
+      <c r="E25">
+        <v>0.01442552709840758</v>
+      </c>
+      <c r="F25">
+        <v>0.004913353436576494</v>
+      </c>
+      <c r="G25">
+        <v>-0.08906908084013478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.002618602742958888</v>
+        <v>-0.01469275932858555</v>
       </c>
       <c r="C26">
-        <v>0.004082303216752643</v>
+        <v>0.009577811916673208</v>
       </c>
       <c r="D26">
-        <v>0.02350048473404063</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02468415056979759</v>
+      </c>
+      <c r="E26">
+        <v>0.01596570607116269</v>
+      </c>
+      <c r="F26">
+        <v>-0.006051220297009067</v>
+      </c>
+      <c r="G26">
+        <v>-0.08480855195864007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1247866582888983</v>
+        <v>-0.1265709937899942</v>
       </c>
       <c r="C28">
-        <v>-0.204629870652816</v>
+        <v>-0.2445957758015677</v>
       </c>
       <c r="D28">
-        <v>-0.0556870576698508</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006685417849329508</v>
+      </c>
+      <c r="E28">
+        <v>-0.0004970979715368958</v>
+      </c>
+      <c r="F28">
+        <v>-0.0277407844130952</v>
+      </c>
+      <c r="G28">
+        <v>-0.05182208462828834</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01195813319681861</v>
+        <v>-0.007848774924227071</v>
       </c>
       <c r="C29">
-        <v>0.02222684364787698</v>
+        <v>0.01950802816300229</v>
       </c>
       <c r="D29">
-        <v>0.01037456553556142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01069206528988934</v>
+      </c>
+      <c r="E29">
+        <v>0.01350432426842064</v>
+      </c>
+      <c r="F29">
+        <v>-0.01110753331363607</v>
+      </c>
+      <c r="G29">
+        <v>-0.1024126169583116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02642480401572048</v>
+        <v>-0.03840467205991544</v>
       </c>
       <c r="C30">
-        <v>0.06872892442596658</v>
+        <v>0.06382975000089092</v>
       </c>
       <c r="D30">
-        <v>0.0361593517597486</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03237248353230589</v>
+      </c>
+      <c r="E30">
+        <v>0.08264939662969523</v>
+      </c>
+      <c r="F30">
+        <v>0.01862597412236438</v>
+      </c>
+      <c r="G30">
+        <v>-0.1192138760616969</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03576287106306422</v>
+        <v>-0.05414620834571022</v>
       </c>
       <c r="C31">
-        <v>0.02686175376051577</v>
+        <v>0.03850706434902007</v>
       </c>
       <c r="D31">
-        <v>0.005865500401233938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004534846044398825</v>
+      </c>
+      <c r="E31">
+        <v>0.001776699110541687</v>
+      </c>
+      <c r="F31">
+        <v>-0.03557169147472372</v>
+      </c>
+      <c r="G31">
+        <v>-0.09601190001121378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006297855843917561</v>
+        <v>-0.00223336175052252</v>
       </c>
       <c r="C32">
-        <v>0.03471752869833757</v>
+        <v>0.01904952431911686</v>
       </c>
       <c r="D32">
-        <v>-0.0003812735842493148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.0006927991666197599</v>
+      </c>
+      <c r="E32">
+        <v>0.05398572197473712</v>
+      </c>
+      <c r="F32">
+        <v>0.02058369832137111</v>
+      </c>
+      <c r="G32">
+        <v>-0.07204662962282384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.02285130596676197</v>
+        <v>-0.0269949560939218</v>
       </c>
       <c r="C33">
-        <v>0.05291811673655876</v>
+        <v>0.0465690786546115</v>
       </c>
       <c r="D33">
-        <v>0.01997945136444291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01873240403997611</v>
+      </c>
+      <c r="E33">
+        <v>0.06826396138978563</v>
+      </c>
+      <c r="F33">
+        <v>0.0005002659788865663</v>
+      </c>
+      <c r="G33">
+        <v>-0.155828192136447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04681914945773128</v>
+        <v>-0.04079286047559771</v>
       </c>
       <c r="C34">
-        <v>0.0606455270606593</v>
+        <v>0.05759266797541316</v>
       </c>
       <c r="D34">
-        <v>0.0003214204913138455</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.003689626519344204</v>
+      </c>
+      <c r="E34">
+        <v>0.02100042837664115</v>
+      </c>
+      <c r="F34">
+        <v>0.01955916867455876</v>
+      </c>
+      <c r="G34">
+        <v>-0.07735260036440886</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.007753832285066382</v>
+        <v>-0.01576544731991265</v>
       </c>
       <c r="C36">
-        <v>0.002618583169011233</v>
+        <v>0.005753874704066809</v>
       </c>
       <c r="D36">
-        <v>0.01089324859267185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01382681144338502</v>
+      </c>
+      <c r="E36">
+        <v>0.01965436067875292</v>
+      </c>
+      <c r="F36">
+        <v>-0.009359811029045864</v>
+      </c>
+      <c r="G36">
+        <v>-0.09492779551871411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02832296319241555</v>
+        <v>-0.03049106080010188</v>
       </c>
       <c r="C38">
-        <v>0.01988231436797297</v>
+        <v>0.02410485961826898</v>
       </c>
       <c r="D38">
-        <v>-0.007914643679116914</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.006228725083429987</v>
+      </c>
+      <c r="E38">
+        <v>0.01981851133333912</v>
+      </c>
+      <c r="F38">
+        <v>-0.01393666620313373</v>
+      </c>
+      <c r="G38">
+        <v>-0.09070579323374266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.02505240840542293</v>
+        <v>-0.03649163029498641</v>
       </c>
       <c r="C39">
-        <v>0.08437174062029533</v>
+        <v>0.07561930123752438</v>
       </c>
       <c r="D39">
-        <v>0.02383975512688593</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01377990037933835</v>
+      </c>
+      <c r="E39">
+        <v>0.04294951372886224</v>
+      </c>
+      <c r="F39">
+        <v>0.01678882240031079</v>
+      </c>
+      <c r="G39">
+        <v>-0.09045699942422411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01334017074103756</v>
+        <v>-0.01673356870168937</v>
       </c>
       <c r="C40">
-        <v>0.0221649847719286</v>
+        <v>0.03172990236035537</v>
       </c>
       <c r="D40">
-        <v>0.01420244936585029</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01579103399344704</v>
+      </c>
+      <c r="E40">
+        <v>0.03491455903882706</v>
+      </c>
+      <c r="F40">
+        <v>-0.02745113796653495</v>
+      </c>
+      <c r="G40">
+        <v>-0.1155206560039233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.009606620395331042</v>
+        <v>-0.01893793119849975</v>
       </c>
       <c r="C41">
-        <v>-0.003980589135718715</v>
+        <v>-0.001932800881447245</v>
       </c>
       <c r="D41">
-        <v>0.001662367157054923</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.005770586540577815</v>
+      </c>
+      <c r="E41">
+        <v>0.01624234243505218</v>
+      </c>
+      <c r="F41">
+        <v>-0.01637446720930277</v>
+      </c>
+      <c r="G41">
+        <v>-0.09005765710926716</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.007630271125808635</v>
+        <v>-0.004334592557404679</v>
       </c>
       <c r="C42">
-        <v>0.03374878364251985</v>
+        <v>0.02709182597543348</v>
       </c>
       <c r="D42">
-        <v>0.09606554936543726</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08355572522837054</v>
+      </c>
+      <c r="E42">
+        <v>-0.01141703830179015</v>
+      </c>
+      <c r="F42">
+        <v>-0.03198399170665664</v>
+      </c>
+      <c r="G42">
+        <v>0.02226569994208166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.02801256784598665</v>
+        <v>-0.03350232929252772</v>
       </c>
       <c r="C43">
-        <v>0.01077564400378029</v>
+        <v>0.0117806842796191</v>
       </c>
       <c r="D43">
-        <v>0.002653096393254479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.00746012042990468</v>
+      </c>
+      <c r="E43">
+        <v>0.03485060924090706</v>
+      </c>
+      <c r="F43">
+        <v>-0.01366430125174198</v>
+      </c>
+      <c r="G43">
+        <v>-0.1164734095044802</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.01417015369182801</v>
+        <v>-0.01409833384396172</v>
       </c>
       <c r="C44">
-        <v>0.05530185198874382</v>
+        <v>0.05082958878936781</v>
       </c>
       <c r="D44">
-        <v>0.01321549379387861</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.008855799819535754</v>
+      </c>
+      <c r="E44">
+        <v>0.03886580997302509</v>
+      </c>
+      <c r="F44">
+        <v>-0.01876257888579632</v>
+      </c>
+      <c r="G44">
+        <v>-0.1183646218737122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.001345925220289426</v>
+        <v>-0.01038598347073656</v>
       </c>
       <c r="C46">
-        <v>0.008557481032086617</v>
+        <v>0.01476766204011463</v>
       </c>
       <c r="D46">
-        <v>0.01297713212474683</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01355689293693662</v>
+      </c>
+      <c r="E46">
+        <v>0.005695064848850286</v>
+      </c>
+      <c r="F46">
+        <v>-0.01596946170918979</v>
+      </c>
+      <c r="G46">
+        <v>-0.1109557392130701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.06271307282826179</v>
+        <v>-0.08235239030562344</v>
       </c>
       <c r="C47">
-        <v>0.0703970905181147</v>
+        <v>0.07166249582725499</v>
       </c>
       <c r="D47">
-        <v>0.004445014005612592</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004789772723739732</v>
+      </c>
+      <c r="E47">
+        <v>-0.008672222242778672</v>
+      </c>
+      <c r="F47">
+        <v>-0.04625611476604743</v>
+      </c>
+      <c r="G47">
+        <v>-0.08836037002533431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01047705405591426</v>
+        <v>-0.01785822607308433</v>
       </c>
       <c r="C48">
-        <v>0.01060408202419864</v>
+        <v>0.01071685304372529</v>
       </c>
       <c r="D48">
-        <v>0.00192164152479639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003424251483625861</v>
+      </c>
+      <c r="E48">
+        <v>0.01387872997189023</v>
+      </c>
+      <c r="F48">
+        <v>-0.02160277921767981</v>
+      </c>
+      <c r="G48">
+        <v>-0.1072067237065509</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.07052086972417573</v>
+        <v>-0.07706705207618529</v>
       </c>
       <c r="C50">
-        <v>0.07074757717661691</v>
+        <v>0.06733773929462732</v>
       </c>
       <c r="D50">
-        <v>0.004486412403925982</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001188918164515213</v>
+      </c>
+      <c r="E50">
+        <v>-0.001274399166592414</v>
+      </c>
+      <c r="F50">
+        <v>-0.04398003752087095</v>
+      </c>
+      <c r="G50">
+        <v>-0.09872098098185236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01460977714364136</v>
+        <v>-0.01184018004117541</v>
       </c>
       <c r="C51">
-        <v>0.03879230740254515</v>
+        <v>0.03028391281489313</v>
       </c>
       <c r="D51">
-        <v>0.01335343866579512</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01246244591772974</v>
+      </c>
+      <c r="E51">
+        <v>0.04134697408820267</v>
+      </c>
+      <c r="F51">
+        <v>0.008634043943624799</v>
+      </c>
+      <c r="G51">
+        <v>-0.1100532005992743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09159127235768717</v>
+        <v>-0.08619028867875719</v>
       </c>
       <c r="C53">
-        <v>0.08643999909311219</v>
+        <v>0.08368560561747179</v>
       </c>
       <c r="D53">
-        <v>0.004748989268261103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003763284916137759</v>
+      </c>
+      <c r="E53">
+        <v>-0.0285584774203873</v>
+      </c>
+      <c r="F53">
+        <v>-0.04656746971654249</v>
+      </c>
+      <c r="G53">
+        <v>-0.09007183816801718</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02720217762886862</v>
+        <v>-0.03173646567957633</v>
       </c>
       <c r="C54">
-        <v>0.005287758404925728</v>
+        <v>0.01360243964372705</v>
       </c>
       <c r="D54">
-        <v>-0.004953573140601203</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0004666861226512012</v>
+      </c>
+      <c r="E54">
+        <v>0.02744409050383298</v>
+      </c>
+      <c r="F54">
+        <v>-0.01327911964416873</v>
+      </c>
+      <c r="G54">
+        <v>-0.1111027903299849</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.06829885276555042</v>
+        <v>-0.08007630242590016</v>
       </c>
       <c r="C55">
-        <v>0.07197640378637397</v>
+        <v>0.06675783735616116</v>
       </c>
       <c r="D55">
-        <v>0.004006957399082711</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005813542543312149</v>
+      </c>
+      <c r="E55">
+        <v>-0.03183351174468539</v>
+      </c>
+      <c r="F55">
+        <v>-0.04804309980159185</v>
+      </c>
+      <c r="G55">
+        <v>-0.06831491660162506</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1396104424867957</v>
+        <v>-0.1419481518202703</v>
       </c>
       <c r="C56">
-        <v>0.1104623560790169</v>
+        <v>0.1032884783710837</v>
       </c>
       <c r="D56">
-        <v>-0.002701902799558782</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01310803051568403</v>
+      </c>
+      <c r="E56">
+        <v>-0.0384651254504336</v>
+      </c>
+      <c r="F56">
+        <v>-0.05682646204582528</v>
+      </c>
+      <c r="G56">
+        <v>-0.05315413207935853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.009523264662270929</v>
+        <v>-0.003731585259714981</v>
       </c>
       <c r="C57">
-        <v>0.004125199218556271</v>
+        <v>0.003296070837991318</v>
       </c>
       <c r="D57">
-        <v>0.02201241118718767</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02292684718607602</v>
+      </c>
+      <c r="E57">
+        <v>0.02484646599778896</v>
+      </c>
+      <c r="F57">
+        <v>-0.002402474333249193</v>
+      </c>
+      <c r="G57">
+        <v>-0.01274384159285974</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.03619402317784834</v>
+        <v>-0.03821165094039816</v>
       </c>
       <c r="C58">
-        <v>0.07000297196508251</v>
+        <v>0.03347034798099253</v>
       </c>
       <c r="D58">
-        <v>0.0101732282716759</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03647179677303591</v>
+      </c>
+      <c r="E58">
+        <v>0.7294048689456869</v>
+      </c>
+      <c r="F58">
+        <v>-0.5749052230452069</v>
+      </c>
+      <c r="G58">
+        <v>0.3052085967496188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1751071533255437</v>
+        <v>-0.1535688031468917</v>
       </c>
       <c r="C59">
-        <v>-0.1966551220759334</v>
+        <v>-0.2081225850629416</v>
       </c>
       <c r="D59">
-        <v>-0.06689102690033676</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01039583924034334</v>
+      </c>
+      <c r="E59">
+        <v>0.0240243159804939</v>
+      </c>
+      <c r="F59">
+        <v>-0.009758592730738079</v>
+      </c>
+      <c r="G59">
+        <v>-0.03908631902594524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2968801111462319</v>
+        <v>-0.2855827159757253</v>
       </c>
       <c r="C60">
-        <v>0.1283504662127945</v>
+        <v>0.1021527371725449</v>
       </c>
       <c r="D60">
-        <v>0.007039288136292165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01826588607722931</v>
+      </c>
+      <c r="E60">
+        <v>0.1271601445950885</v>
+      </c>
+      <c r="F60">
+        <v>0.3103261228549346</v>
+      </c>
+      <c r="G60">
+        <v>0.1650957005011255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.02499835974404978</v>
+        <v>-0.03898916278079238</v>
       </c>
       <c r="C61">
-        <v>0.06534366765496592</v>
+        <v>0.06231191033187754</v>
       </c>
       <c r="D61">
-        <v>0.01388848118679212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007418513766086492</v>
+      </c>
+      <c r="E61">
+        <v>0.03846842117076553</v>
+      </c>
+      <c r="F61">
+        <v>0.007219000775532245</v>
+      </c>
+      <c r="G61">
+        <v>-0.08859126858103446</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01061098178477107</v>
+        <v>-0.01470009660162544</v>
       </c>
       <c r="C63">
-        <v>0.02857355846018881</v>
+        <v>0.02630232816972146</v>
       </c>
       <c r="D63">
-        <v>0.01215477231399251</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009353967760612678</v>
+      </c>
+      <c r="E63">
+        <v>0.0120469706522532</v>
+      </c>
+      <c r="F63">
+        <v>-0.01310625341635194</v>
+      </c>
+      <c r="G63">
+        <v>-0.08869335040032154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04134489563851681</v>
+        <v>-0.05037381142699666</v>
       </c>
       <c r="C64">
-        <v>0.0330132013276563</v>
+        <v>0.04675786696477581</v>
       </c>
       <c r="D64">
-        <v>0.007031124705416383</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006373522115166066</v>
+      </c>
+      <c r="E64">
+        <v>0.00869906828315388</v>
+      </c>
+      <c r="F64">
+        <v>0.003983488033684935</v>
+      </c>
+      <c r="G64">
+        <v>-0.09514454356291932</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07426625655466462</v>
+        <v>-0.07060407782894983</v>
       </c>
       <c r="C65">
-        <v>0.07885056603897977</v>
+        <v>0.05051590084392192</v>
       </c>
       <c r="D65">
-        <v>0.02313368012174975</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01913626380216593</v>
+      </c>
+      <c r="E65">
+        <v>0.06195981200415301</v>
+      </c>
+      <c r="F65">
+        <v>0.007347074347497783</v>
+      </c>
+      <c r="G65">
+        <v>-0.03917110988813168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.04237153092142463</v>
+        <v>-0.04810540659733933</v>
       </c>
       <c r="C66">
-        <v>0.1289580583401834</v>
+        <v>0.1022411554392978</v>
       </c>
       <c r="D66">
-        <v>0.03037235476181581</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01456664926257118</v>
+      </c>
+      <c r="E66">
+        <v>0.0652454253797233</v>
+      </c>
+      <c r="F66">
+        <v>0.02222767684530643</v>
+      </c>
+      <c r="G66">
+        <v>-0.09493207459406619</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05678823491894933</v>
+        <v>-0.05381067223175592</v>
       </c>
       <c r="C67">
-        <v>0.02582809386807377</v>
+        <v>0.02952035024361122</v>
       </c>
       <c r="D67">
-        <v>-0.007312014236027693</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.00546783520188748</v>
+      </c>
+      <c r="E67">
+        <v>0.006211256250182254</v>
+      </c>
+      <c r="F67">
+        <v>-0.009491862153867206</v>
+      </c>
+      <c r="G67">
+        <v>-0.07671552341240435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1479767072276492</v>
+        <v>-0.1546981920936168</v>
       </c>
       <c r="C68">
-        <v>-0.2560253598516692</v>
+        <v>-0.2731939268744352</v>
       </c>
       <c r="D68">
-        <v>-0.05516411566598031</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005602770451909159</v>
+      </c>
+      <c r="E68">
+        <v>-0.003987973727420862</v>
+      </c>
+      <c r="F68">
+        <v>-0.04308989337940702</v>
+      </c>
+      <c r="G68">
+        <v>-0.01983316611777881</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.07309358421348702</v>
+        <v>-0.08361355894167247</v>
       </c>
       <c r="C69">
-        <v>0.06729621485248413</v>
+        <v>0.07320181644700616</v>
       </c>
       <c r="D69">
-        <v>-0.001722491093828117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008258275202717257</v>
+      </c>
+      <c r="E69">
+        <v>-0.01378273307194313</v>
+      </c>
+      <c r="F69">
+        <v>-0.02184953869404215</v>
+      </c>
+      <c r="G69">
+        <v>-0.102208388424309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1491303054253813</v>
+        <v>-0.1409732884005635</v>
       </c>
       <c r="C71">
-        <v>-0.202665202899012</v>
+        <v>-0.234196224706344</v>
       </c>
       <c r="D71">
-        <v>-0.05629128233717972</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002750957501866386</v>
+      </c>
+      <c r="E71">
+        <v>0.02493221114271792</v>
+      </c>
+      <c r="F71">
+        <v>-0.03596605525829534</v>
+      </c>
+      <c r="G71">
+        <v>-0.06347256721147224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.06123762051275972</v>
+        <v>-0.08434254864011885</v>
       </c>
       <c r="C72">
-        <v>0.07277211294357597</v>
+        <v>0.06317761776480105</v>
       </c>
       <c r="D72">
-        <v>-0.0001091547801827747</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006926681343780603</v>
+      </c>
+      <c r="E72">
+        <v>0.005398312715083778</v>
+      </c>
+      <c r="F72">
+        <v>0.02035927378541047</v>
+      </c>
+      <c r="G72">
+        <v>-0.08461879301070056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4184290093266114</v>
+        <v>-0.3682035847027195</v>
       </c>
       <c r="C73">
-        <v>0.1631815639047993</v>
+        <v>0.09665908577922594</v>
       </c>
       <c r="D73">
-        <v>0.00332342096494457</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03159719221937442</v>
+      </c>
+      <c r="E73">
+        <v>0.2766038762724912</v>
+      </c>
+      <c r="F73">
+        <v>0.5349147925900335</v>
+      </c>
+      <c r="G73">
+        <v>0.3276250391158488</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1015958999897534</v>
+        <v>-0.1085162665137036</v>
       </c>
       <c r="C74">
-        <v>0.1297303395694998</v>
+        <v>0.10443864253659</v>
       </c>
       <c r="D74">
-        <v>0.007716703304848424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009465513426417998</v>
+      </c>
+      <c r="E74">
+        <v>-0.01193508026369886</v>
+      </c>
+      <c r="F74">
+        <v>-0.05976961117823996</v>
+      </c>
+      <c r="G74">
+        <v>-0.07344355251641298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2411319073239827</v>
+        <v>-0.2524337989669447</v>
       </c>
       <c r="C75">
-        <v>0.165888546026193</v>
+        <v>0.1482891303537939</v>
       </c>
       <c r="D75">
-        <v>-0.01131973002615352</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03245594520365554</v>
+      </c>
+      <c r="E75">
+        <v>-0.1032724418691385</v>
+      </c>
+      <c r="F75">
+        <v>-0.1325273441434938</v>
+      </c>
+      <c r="G75">
+        <v>-0.01909825196499137</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1113376851377299</v>
+        <v>-0.1220050386720031</v>
       </c>
       <c r="C76">
-        <v>0.1272784371814345</v>
+        <v>0.1067913427888766</v>
       </c>
       <c r="D76">
-        <v>-0.0001274525004833682</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01835614847665769</v>
+      </c>
+      <c r="E76">
+        <v>-0.04341857196602836</v>
+      </c>
+      <c r="F76">
+        <v>-0.08118586323635112</v>
+      </c>
+      <c r="G76">
+        <v>-0.06705197029079246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.05416902932975116</v>
+        <v>-0.06594130110898506</v>
       </c>
       <c r="C77">
-        <v>0.06096419134289036</v>
+        <v>0.06573894215593183</v>
       </c>
       <c r="D77">
-        <v>0.01378006274846173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01053027419676642</v>
+      </c>
+      <c r="E77">
+        <v>0.05328620060206804</v>
+      </c>
+      <c r="F77">
+        <v>-0.04145492452219993</v>
+      </c>
+      <c r="G77">
+        <v>-0.1166563423425419</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.0413595229040631</v>
+        <v>-0.04097632965216465</v>
       </c>
       <c r="C78">
-        <v>0.05477960349467926</v>
+        <v>0.0533911960783066</v>
       </c>
       <c r="D78">
-        <v>0.009903683776695208</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.009602384451664871</v>
+      </c>
+      <c r="E78">
+        <v>0.05552483605453265</v>
+      </c>
+      <c r="F78">
+        <v>0.02656640585241858</v>
+      </c>
+      <c r="G78">
+        <v>-0.09709626587199642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.001193438469078037</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.0003825978455040336</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.001022552292510432</v>
+      </c>
+      <c r="E79">
+        <v>0.008396946889241842</v>
+      </c>
+      <c r="F79">
+        <v>-0.001742483628913332</v>
+      </c>
+      <c r="G79">
+        <v>-0.009325365374484999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04767852243162056</v>
+        <v>-0.04134769481315993</v>
       </c>
       <c r="C80">
-        <v>0.06297792727909046</v>
+        <v>0.0477202797362094</v>
       </c>
       <c r="D80">
-        <v>0.01906737695040648</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01514696152394424</v>
+      </c>
+      <c r="E80">
+        <v>0.04212994772136826</v>
+      </c>
+      <c r="F80">
+        <v>-0.002506209515314045</v>
+      </c>
+      <c r="G80">
+        <v>-0.05228555955152005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1283954115160677</v>
+        <v>-0.1398261483480432</v>
       </c>
       <c r="C81">
-        <v>0.0979049125129523</v>
+        <v>0.09086842215726677</v>
       </c>
       <c r="D81">
-        <v>-0.003084932363154099</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01588039216304714</v>
+      </c>
+      <c r="E81">
+        <v>-0.06348604525155892</v>
+      </c>
+      <c r="F81">
+        <v>-0.1025078489132736</v>
+      </c>
+      <c r="G81">
+        <v>-0.03652458141544059</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.04491932777769087</v>
+        <v>-0.1695655484412158</v>
       </c>
       <c r="C82">
-        <v>0.03958561022642901</v>
+        <v>0.1181178734642522</v>
       </c>
       <c r="D82">
-        <v>0.002418359806429491</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01844188027381347</v>
+      </c>
+      <c r="E82">
+        <v>-0.1767969033626026</v>
+      </c>
+      <c r="F82">
+        <v>-0.05367970286680991</v>
+      </c>
+      <c r="G82">
+        <v>-0.0281046678407646</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02489416557417009</v>
+        <v>-0.03136556959488369</v>
       </c>
       <c r="C83">
-        <v>0.01967788518980915</v>
+        <v>0.02980732603755565</v>
       </c>
       <c r="D83">
-        <v>0.005473824031881586</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007642900617014102</v>
+      </c>
+      <c r="E83">
+        <v>0.04003415836451711</v>
+      </c>
+      <c r="F83">
+        <v>0.02183434308748498</v>
+      </c>
+      <c r="G83">
+        <v>-0.05621936103306219</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2330185667029794</v>
+        <v>-0.2130053923807553</v>
       </c>
       <c r="C85">
-        <v>0.1710003337091665</v>
+        <v>0.1332826543174235</v>
       </c>
       <c r="D85">
-        <v>0.0005792717824040409</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01903613068905536</v>
+      </c>
+      <c r="E85">
+        <v>-0.109335476060026</v>
+      </c>
+      <c r="F85">
+        <v>-0.0579087131570642</v>
+      </c>
+      <c r="G85">
+        <v>0.02458140305531234</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01017191402473138</v>
+        <v>-0.01093410633192681</v>
       </c>
       <c r="C86">
-        <v>0.02521911341197073</v>
+        <v>0.0265277266507237</v>
       </c>
       <c r="D86">
-        <v>0.01040279602204697</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01478325665761559</v>
+      </c>
+      <c r="E86">
+        <v>0.07517250091862102</v>
+      </c>
+      <c r="F86">
+        <v>0.01471945907918517</v>
+      </c>
+      <c r="G86">
+        <v>-0.1727663577810289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01352738584050591</v>
+        <v>-0.02084098316639942</v>
       </c>
       <c r="C87">
-        <v>0.02265483915036563</v>
+        <v>0.01494670207500059</v>
       </c>
       <c r="D87">
-        <v>0.010892299006361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01433010902947959</v>
+      </c>
+      <c r="E87">
+        <v>0.1001633630914431</v>
+      </c>
+      <c r="F87">
+        <v>-0.03214092491025014</v>
+      </c>
+      <c r="G87">
+        <v>-0.1102175061336599</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.08424459202384027</v>
+        <v>-0.08998873006825302</v>
       </c>
       <c r="C88">
-        <v>0.06320620235640816</v>
+        <v>0.06315253241151908</v>
       </c>
       <c r="D88">
-        <v>0.02733815339099277</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02285069371669268</v>
+      </c>
+      <c r="E88">
+        <v>0.004724765075890702</v>
+      </c>
+      <c r="F88">
+        <v>-0.01924842322061178</v>
+      </c>
+      <c r="G88">
+        <v>-0.1047487866333822</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2475848495574014</v>
+        <v>-0.2220624927619354</v>
       </c>
       <c r="C89">
-        <v>-0.3505950947733044</v>
+        <v>-0.3686170209038823</v>
       </c>
       <c r="D89">
-        <v>-0.08913684707988077</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.0004398494294823977</v>
+      </c>
+      <c r="E89">
+        <v>-0.02354940693614626</v>
+      </c>
+      <c r="F89">
+        <v>-0.01196743544683273</v>
+      </c>
+      <c r="G89">
+        <v>-0.08278509813566362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2217251716038446</v>
+        <v>-0.2030574446796089</v>
       </c>
       <c r="C90">
-        <v>-0.3095716576896958</v>
+        <v>-0.3193103232995132</v>
       </c>
       <c r="D90">
-        <v>-0.08394330656804719</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004611418240925365</v>
+      </c>
+      <c r="E90">
+        <v>-0.01352968755764147</v>
+      </c>
+      <c r="F90">
+        <v>-0.05007110708997983</v>
+      </c>
+      <c r="G90">
+        <v>-0.05006753364880103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.183640688545629</v>
+        <v>-0.1878500210555678</v>
       </c>
       <c r="C91">
-        <v>0.1314032963345454</v>
+        <v>0.1332523142468693</v>
       </c>
       <c r="D91">
-        <v>-0.008819774545659805</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02362437680223062</v>
+      </c>
+      <c r="E91">
+        <v>-0.08670723664929364</v>
+      </c>
+      <c r="F91">
+        <v>-0.1048097868434247</v>
+      </c>
+      <c r="G91">
+        <v>-0.04244712191171715</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.2176215494157193</v>
+        <v>-0.1867143909000656</v>
       </c>
       <c r="C92">
-        <v>-0.2264707957266713</v>
+        <v>-0.2722396357375186</v>
       </c>
       <c r="D92">
-        <v>-0.103373916827673</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03958934932278485</v>
+      </c>
+      <c r="E92">
+        <v>0.01431783742802085</v>
+      </c>
+      <c r="F92">
+        <v>-0.0644714303990408</v>
+      </c>
+      <c r="G92">
+        <v>-0.07549463427215969</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2358652567042222</v>
+        <v>-0.22619957955599</v>
       </c>
       <c r="C93">
-        <v>-0.2906435793782262</v>
+        <v>-0.3144403019785713</v>
       </c>
       <c r="D93">
-        <v>-0.08723008960508651</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01038236971617477</v>
+      </c>
+      <c r="E93">
+        <v>0.00242481153850669</v>
+      </c>
+      <c r="F93">
+        <v>-0.03705127640276022</v>
+      </c>
+      <c r="G93">
+        <v>-0.05508289053760931</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2550010515577853</v>
+        <v>-0.3363515818453836</v>
       </c>
       <c r="C94">
-        <v>0.1711909074251825</v>
+        <v>0.1963005411524499</v>
       </c>
       <c r="D94">
-        <v>0.009262081381215528</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03044863186866517</v>
+      </c>
+      <c r="E94">
+        <v>-0.3853767173292451</v>
+      </c>
+      <c r="F94">
+        <v>-0.3614829967677228</v>
+      </c>
+      <c r="G94">
+        <v>0.3757330922962361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.06479972649313551</v>
+        <v>-0.08179392102548348</v>
       </c>
       <c r="C95">
-        <v>0.1081675358252047</v>
+        <v>0.08779048220644951</v>
       </c>
       <c r="D95">
-        <v>0.007164278452934361</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.008225222332350268</v>
+      </c>
+      <c r="E95">
+        <v>0.1304337863360858</v>
+      </c>
+      <c r="F95">
+        <v>0.1421352687593238</v>
+      </c>
+      <c r="G95">
+        <v>-0.1135144650157549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1990900853668836</v>
+        <v>-0.1919603182668482</v>
       </c>
       <c r="C98">
-        <v>0.07533559827891083</v>
+        <v>0.04973805888078344</v>
       </c>
       <c r="D98">
-        <v>-0.02251500766504997</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.008402573648252396</v>
+      </c>
+      <c r="E98">
+        <v>0.1350537711406284</v>
+      </c>
+      <c r="F98">
+        <v>0.1966847584818574</v>
+      </c>
+      <c r="G98">
+        <v>0.06182886553948804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01173660772171264</v>
+        <v>-0.007693710730057202</v>
       </c>
       <c r="C101">
-        <v>0.02251865884106842</v>
+        <v>0.01939452285527375</v>
       </c>
       <c r="D101">
-        <v>0.01031052503246471</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01050625928994287</v>
+      </c>
+      <c r="E101">
+        <v>0.01300245930281344</v>
+      </c>
+      <c r="F101">
+        <v>-0.01187975615553219</v>
+      </c>
+      <c r="G101">
+        <v>-0.1020797425206054</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1113211759157821</v>
+        <v>-0.1224563615355651</v>
       </c>
       <c r="C102">
-        <v>0.08245448670842499</v>
+        <v>0.09278822175185189</v>
       </c>
       <c r="D102">
-        <v>0.009667488202707396</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0004819525517121493</v>
+      </c>
+      <c r="E102">
+        <v>-0.04845094612611406</v>
+      </c>
+      <c r="F102">
+        <v>-0.02171911768268668</v>
+      </c>
+      <c r="G102">
+        <v>-0.02084293999536596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.1098282078937908</v>
+        <v>-0.02013550352763142</v>
       </c>
       <c r="C104">
-        <v>-0.2152028650491662</v>
+        <v>-0.02818582086756848</v>
       </c>
       <c r="D104">
-        <v>0.9613255293489649</v>
+        <v>-0.9858326873391231</v>
+      </c>
+      <c r="E104">
+        <v>-0.08990221601222771</v>
+      </c>
+      <c r="F104">
+        <v>-0.02102269414529563</v>
+      </c>
+      <c r="G104">
+        <v>0.03693206776867779</v>
       </c>
     </row>
   </sheetData>
